--- a/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_11.xlsx
+++ b/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/spec/fixtures/files/models/import/sponsor_term_format_one/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251A2C60-A37F-2A40-90FA-F69CBD2F58A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{585A96B1-F906-CF43-97A1-B86715FE9E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2360" windowWidth="27640" windowHeight="16940" xr2:uid="{F0FAAA4D-DC13-CD4E-BCE9-C2EA9E0A2819}"/>
   </bookViews>
@@ -174,9 +174,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -203,9 +210,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,445 +531,455 @@
   <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="25.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="H2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="H3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="M3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="M4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="M5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="H6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="M6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="H7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="M7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="H8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O8" t="s">
-        <v>29</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="M8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="1" t="s">
         <v>30</v>
       </c>
     </row>

--- a/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_11.xlsx
+++ b/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_11.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/spec/fixtures/files/models/import/sponsor_term_format_one/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{585A96B1-F906-CF43-97A1-B86715FE9E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54182F37-A48D-6842-848C-0970D2DCA6A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2360" windowWidth="27640" windowHeight="16940" xr2:uid="{F0FAAA4D-DC13-CD4E-BCE9-C2EA9E0A2819}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="44">
   <si>
     <t>CODELIST_LONG_NAME</t>
   </si>
@@ -77,21 +77,9 @@
     <t>RANK</t>
   </si>
   <si>
-    <t>CRFGL_USE</t>
-  </si>
-  <si>
-    <t>SDTM_USE</t>
-  </si>
-  <si>
-    <t>ADAM_USE</t>
-  </si>
-  <si>
     <t>ED_USE</t>
   </si>
   <si>
-    <t>STUDY_USE</t>
-  </si>
-  <si>
     <t>INACTIVE_F</t>
   </si>
   <si>
@@ -168,6 +156,15 @@
   </si>
   <si>
     <t>DSCBWHOR_01</t>
+  </si>
+  <si>
+    <t>DC_STAGE</t>
+  </si>
+  <si>
+    <t>SDTM_STAGE</t>
+  </si>
+  <si>
+    <t>ADAM_STAGE</t>
   </si>
 </sst>
 </file>
@@ -528,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8527A4C-F59F-1542-AE00-267DC922A9F0}">
-  <dimension ref="A1:X8"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -546,7 +543,7 @@
     <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -590,397 +587,412 @@
         <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="T1" s="2"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="L3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="P3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="H6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="K6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="M6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>30</v>
+      <c r="M7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="M8" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
